--- a/bruh/End_to_End_Project/CaliHousing/Data/KetQuaDanhGia.xlsx
+++ b/bruh/End_to_End_Project/CaliHousing/Data/KetQuaDanhGia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MachineLearning\NamHoc_2022_2023_1\Thu5\End_to_End_Project\CaliHousing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTE\Year_3\HK_1\Machine Learning\DoAnCuoiKy\7-12\Phat\finalProject_MachineLearning\bruh\End_to_End_Project\CaliHousing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707E734-8BBF-4D5B-A184-656BE3A2BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,8 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,14 +110,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +144,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,17 +163,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="3" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,21 +468,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.1796875" customWidth="1"/>
-    <col min="2" max="2" width="47.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
-    <col min="5" max="5" width="62.08984375" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -474,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>68628.2</v>
       </c>
@@ -491,7 +535,7 @@
         <v>18045.349999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -508,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -525,7 +569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -542,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -559,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>66911.98</v>
       </c>
@@ -576,23 +620,27 @@
         <v>46910.92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
